--- a/项目管理文档工具.xlsx
+++ b/项目管理文档工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>排期日期</t>
   </si>
@@ -40,6 +40,9 @@
     <t>优先度</t>
   </si>
   <si>
+    <t>需求进度节点</t>
+  </si>
+  <si>
     <t>Ext</t>
   </si>
   <si>
@@ -139,6 +142,31 @@
     <t>急|已更新线上</t>
   </si>
   <si>
+    <r>
+      <t>(12) 迁移移动端官网至</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120.79.218.236</t>
+    </r>
+  </si>
+  <si>
+    <t>已迁移</t>
+  </si>
+  <si>
+    <t>(13) 增强版订单状态接口【与小雨伞对接】</t>
+  </si>
+  <si>
+    <t>业务急|已更新线上</t>
+  </si>
+  <si>
     <t>序项</t>
   </si>
   <si>
@@ -155,6 +183,15 @@
   </si>
   <si>
     <t>加急处理，已更新线上</t>
+  </si>
+  <si>
+    <t>信诚体检报告【唐僧保-小雨伞-信诚】</t>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>增强版订单状态接口【与小雨伞对接】</t>
   </si>
   <si>
     <t>3+2+1模式</t>
@@ -177,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -220,17 +257,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,22 +311,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,90 +388,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,6 +410,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,7 +446,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,97 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,42 +591,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,17 +684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,8 +702,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,21 +738,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -731,7 +753,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,8 +776,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,10 +789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,16 +801,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,119 +819,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,20 +971,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,10 +1364,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD30"/>
+  <dimension ref="A1:XFD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1333,7 +1376,8 @@
     <col min="2" max="2" width="9.375" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="14" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1347,7 +1391,7 @@
       </c>
     </row>
     <row r="3" s="8" customFormat="1"/>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1360,185 +1404,198 @@
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" ht="15" spans="9:18">
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="19" t="s">
+      <c r="D6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="15" spans="6:18">
+      <c r="F7"/>
+      <c r="G7" s="8"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="L7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="M7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="N7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="16" t="s">
-        <v>11</v>
+      <c r="P7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:14">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="8"/>
       <c r="I8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="23" t="s">
-        <v>11</v>
+      <c r="N8" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:14">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="I9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" ht="14.25" spans="9:14">
+    <row r="10" ht="14.25" spans="7:14">
+      <c r="G10" s="8"/>
       <c r="I10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:14">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="I11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" ht="14.25" spans="9:14">
+    <row r="12" ht="14.25" spans="7:14">
+      <c r="G12" s="8"/>
       <c r="I12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>12</v>
       </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>11</v>
+      <c r="M12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1546,127 +1603,199 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="10:10">
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:3">
+    <row r="14" ht="14.25" spans="7:10">
+      <c r="G14" s="8"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:7">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="7:7">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="7:7">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="7:7">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="4:4">
+      <c r="D35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1679,7 +1808,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D6">
       <formula1>$O$7:$P$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28 D30 D7:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20 D28 D30 D32 D34 D35 D7:D19 D21:D27">
       <formula1>$O$7:$P$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -1692,53 +1821,85 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="50.375" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9" style="13"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>43</v>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="15">
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1953,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1808,44 +1969,44 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>

--- a/项目管理文档工具.xlsx
+++ b/项目管理文档工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630" activeTab="1"/>
+    <workbookView windowWidth="23730" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>排期日期</t>
   </si>
@@ -143,6 +143,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>(12) 迁移移动端官网至</t>
     </r>
     <r>
@@ -194,6 +201,12 @@
     <t>增强版订单状态接口【与小雨伞对接】</t>
   </si>
   <si>
+    <t>之前的保单身份证选长期是错误的，短信通知客户修改</t>
+  </si>
+  <si>
+    <t>受益人选择出生证，默认长期，无需选择证件有效期</t>
+  </si>
+  <si>
     <t>3+2+1模式</t>
   </si>
   <si>
@@ -214,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -257,6 +270,134 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -266,140 +407,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,61 +423,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,121 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,17 +697,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,16 +716,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,17 +758,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -758,26 +765,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,137 +814,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,17 +984,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1407,7 +1414,7 @@
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1424,7 +1431,7 @@
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F6"/>
@@ -1433,29 +1440,29 @@
     <row r="7" ht="15" spans="6:18">
       <c r="F7"/>
       <c r="G7" s="8"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="23" t="s">
+      <c r="P7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="17" t="s">
+      <c r="Q7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="15" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1469,25 +1476,24 @@
       <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="16"/>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="I8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="24" t="s">
+      <c r="J8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="22" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1501,17 +1507,17 @@
       <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="8"/>
       <c r="I9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="24" t="s">
+      <c r="J9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="8"/>
@@ -1523,19 +1529,19 @@
       <c r="I10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N10" s="25" t="s">
+      <c r="J10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1549,20 +1555,20 @@
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8"/>
       <c r="I11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="24" t="s">
+      <c r="J11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="22" t="s">
         <v>12</v>
       </c>
       <c r="M11" s="8"/>
@@ -1573,17 +1579,17 @@
       <c r="I12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="22" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="27" t="s">
+      <c r="M12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="25" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1605,7 +1611,7 @@
     </row>
     <row r="14" ht="14.25" spans="7:10">
       <c r="G14" s="8"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
@@ -1659,7 +1665,7 @@
       <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="8"/>
@@ -1731,7 +1737,7 @@
       <c r="C28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="8"/>
@@ -1749,10 +1755,10 @@
       <c r="C30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="18" t="s">
+      <c r="D30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1760,7 +1766,7 @@
       <c r="G31" s="8"/>
     </row>
     <row r="32" ht="14.25" spans="1:7">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -1769,7 +1775,7 @@
       <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -1787,7 +1793,7 @@
       <c r="C34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
@@ -1795,7 +1801,7 @@
       </c>
     </row>
     <row r="35" ht="14.25" spans="4:4">
-      <c r="D35" s="15"/>
+      <c r="D35" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1821,15 +1827,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="50.375" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="8" customWidth="1"/>
     <col min="4" max="4" width="9" style="8"/>
@@ -1850,7 +1856,7 @@
       <c r="D1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1867,7 +1873,7 @@
       <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -1875,7 +1881,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1884,12 +1890,12 @@
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -1898,8 +1904,33 @@
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="8" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1953,7 +1984,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1969,15 +2000,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1990,7 +2021,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理文档工具.xlsx
+++ b/项目管理文档工具.xlsx
@@ -227,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -271,12 +271,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -285,14 +324,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,8 +375,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,60 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -383,36 +407,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -423,6 +423,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -435,175 +471,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,8 +700,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +711,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +751,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -752,15 +776,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,21 +794,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -802,10 +802,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,133 +814,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,7 +1374,7 @@
   <dimension ref="A1:XFD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1827,10 +1827,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1931,6 +1931,11 @@
       </c>
       <c r="C10" s="8" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/项目管理文档工具.xlsx
+++ b/项目管理文档工具.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>排期日期</t>
   </si>
@@ -207,6 +207,9 @@
     <t>受益人选择出生证，默认长期，无需选择证件有效期</t>
   </si>
   <si>
+    <t xml:space="preserve">优化产品页面 </t>
+  </si>
+  <si>
     <t>3+2+1模式</t>
   </si>
   <si>
@@ -271,7 +274,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,16 +312,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -302,14 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,24 +364,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,29 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -383,15 +396,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -399,14 +410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -423,187 +426,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,11 +700,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,11 +724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +750,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,32 +789,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,10 +805,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -814,133 +817,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1830,7 +1833,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1933,9 +1936,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" s="5">
         <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +1995,7 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2005,15 +2011,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -2026,7 +2032,7 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:6">

--- a/项目管理文档工具.xlsx
+++ b/项目管理文档工具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13185"/>
+    <workbookView windowWidth="28660" windowHeight="13320"/>
   </bookViews>
   <sheets>
     <sheet name="每周排期" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>排期日期</t>
   </si>
@@ -182,7 +182,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(13) 迁移移动端官网至</t>
     </r>
@@ -193,7 +192,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>120.79.218.236</t>
     </r>
@@ -229,7 +227,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(19) CDN资源服务器搬迁至</t>
     </r>
@@ -240,7 +237,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>120.79.218.236</t>
     </r>
@@ -267,13 +263,40 @@
     <t>(6) 补充深爱保上线以及唐僧保V3.3更新资料</t>
   </si>
   <si>
-    <t>(7) 产品以及购买流程平台化 - 前端页面</t>
-  </si>
-  <si>
-    <t>(7) 产品以及购买流程平台化 - 后端接口</t>
+    <r>
+      <t>(7) 产品以及购买流程页面平台化之</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">产品详情页面 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- 前端页面开发</t>
+    </r>
+  </si>
+  <si>
+    <t>暂定</t>
+  </si>
+  <si>
+    <t>(7) 产品以及购买流程平台化之产品详情页面 - 后端接口开发</t>
   </si>
   <si>
     <t>周二至周五</t>
+  </si>
+  <si>
+    <t>(7) 产品以及购买流程平台化之产品详情页面  - 管理端开发</t>
   </si>
   <si>
     <t>(8) 一保到位对接</t>
@@ -418,8 +441,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -494,11 +517,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,25 +533,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,9 +548,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,6 +567,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,24 +602,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,18 +624,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -639,91 +662,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,85 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,17 +948,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -947,6 +959,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,15 +1002,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -990,17 +1017,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,142 +1032,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1326,7 +1349,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4D4D4D"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1606,24 +1629,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD68"/>
+  <dimension ref="A1:XFD69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="54.625" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="69.8" customWidth="1"/>
+    <col min="2" max="2" width="10.6" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.88" style="6" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.88" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="17.13" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1691,7 +1714,7 @@
       <c r="F7"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" ht="15.75" spans="6:19">
+    <row r="8" spans="6:19">
       <c r="F8"/>
       <c r="G8" s="6"/>
       <c r="I8" s="24"/>
@@ -2252,10 +2275,18 @@
       <c r="J52" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K52" s="26"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="11"/>
+      <c r="K52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N52" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="9:14">
       <c r="I53" s="5" t="s">
@@ -2306,10 +2337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="3:14">
-      <c r="C55" s="6" t="s">
-        <v>11</v>
-      </c>
+    <row r="55" spans="9:14">
       <c r="I55" s="7" t="s">
         <v>10</v>
       </c>
@@ -2376,8 +2404,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B65" s="6" t="s">
@@ -2386,26 +2414,46 @@
       <c r="C65" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="F65" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="F66" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2434,7 +2482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -2442,20 +2490,20 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="2" max="2" width="8.88" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.88" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.88" customWidth="1"/>
     <col min="5" max="5" width="15" style="6" customWidth="1"/>
     <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="13.38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="37" customHeight="1" spans="1:8">
       <c r="A1" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2467,48 +2515,48 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3" s="17">
         <v>43313</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H3" s="18">
         <v>43317</v>
@@ -2516,22 +2564,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="17">
         <v>43313</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="H4" s="18">
         <v>43317</v>
@@ -2539,16 +2587,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B5" s="17">
         <v>43306</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
@@ -2569,32 +2617,33 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="54.625" customWidth="1"/>
-    <col min="3" max="4" width="12.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.125" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="64.4" customWidth="1"/>
+    <col min="3" max="3" width="15.6" style="6" customWidth="1"/>
+    <col min="4" max="4" width="6.2" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.6" customWidth="1"/>
+    <col min="6" max="6" width="52.6" customWidth="1"/>
     <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="19.4" customWidth="1"/>
     <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.13" customWidth="1"/>
+    <col min="15" max="15" width="19.13" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -2608,16 +2657,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2625,23 +2674,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="9:9">
       <c r="I5" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2649,18 +2698,18 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2668,16 +2717,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2685,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>27</v>
@@ -2699,10 +2748,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="5:5">
@@ -2713,10 +2762,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="5:5">
@@ -2730,10 +2779,10 @@
         <v>49</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="5:5">
@@ -2744,10 +2793,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2763,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2771,7 +2820,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2780,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B2:F7"/>
   <sheetViews>
@@ -2788,20 +2837,20 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="10.88" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.88" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.88" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2817,15 +2866,15 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -2838,7 +2887,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:6">
